--- a/biology/Zoologie/Danio_bleu/Danio_bleu.xlsx
+++ b/biology/Zoologie/Danio_bleu/Danio_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danio kerri
 Le Danio bleu ou danio kerri (Danio kerri) est une espèce de poisson de la famille des Cyprinidae. On le trouve en Thaïlande dans l'archipel de Ko Yao, dans les îles Ko Yao Yai (thaï : เกาะ ยาว ใหญ่) et Ko Yao Noi (เกาะ ยาว น้อย) (litt. grande île longue et petite île longue).
-C'est un petit poisson omnivore qui mesure 5 cm de long[1].
+C'est un petit poisson omnivore qui mesure 5 cm de long.
 </t>
         </is>
       </c>
